--- a/lab2-02.10.22/solution.xlsx
+++ b/lab2-02.10.22/solution.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pugalol/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pugalol/itmo/5 course/theoretical foundations of computer graphics and computational optics/lab2-02.10.22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59DDB1D-B6A1-CE44-BA2D-775ACBD7D04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990FCC89-9446-7449-A654-EC2935B897A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15800" xr2:uid="{85DBC450-43DB-B14E-BB89-9081B986EB08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{85DBC450-43DB-B14E-BB89-9081B986EB08}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Аналитика</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -200,14 +203,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -573,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BACBED-783D-A444-957C-B3331A244198}">
   <dimension ref="A9:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="144" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="144" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,9 +589,8 @@
   </cols>
   <sheetData>
     <row r="9" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J9">
-        <f>DEGREES(ACOS(0.667))</f>
-        <v>48.164056525062279</v>
+      <c r="J9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -605,16 +608,16 @@
       <c r="B19">
         <v>7.9577</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
@@ -709,16 +712,16 @@
         <v>2.6925824035672519</v>
       </c>
       <c r="F23" s="2">
-        <f>$D$22 / E23</f>
-        <v>0.55708601453115558</v>
+        <f>$C$22 / E23</f>
+        <v>-0.74278135270820744</v>
       </c>
       <c r="G23" s="2">
         <f>DEGREES(ACOS(F23))</f>
-        <v>56.145485187379485</v>
+        <v>137.96888622580272</v>
       </c>
       <c r="H23" s="2">
-        <f>(B19*F23)/(E23^2)</f>
-        <v>0.61146529349442447</v>
+        <f>($B$19*F23)/(E23^2)</f>
+        <v>-0.81528705799256596</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -743,13 +746,21 @@
         <f>SQRT(($B$22-B24)^2 + ($C$22-C24)^2 + ($D$22-D24)^2)</f>
         <v>3.7749172176353749</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <f>$C$22 / E24</f>
+        <v>-0.52981294282601754</v>
+      </c>
       <c r="G24" s="4">
         <f>DEGREES(ACOS(F24))</f>
-        <v>90</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>121.99281700018172</v>
+      </c>
+      <c r="H24" s="2">
+        <f>($B$19*F24)/(E24^2)</f>
+        <v>-0.29586613720186666</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.2185</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
